--- a/users.xlsx
+++ b/users.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12930"/>
+    <workbookView windowWidth="12915" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1014,14 +1012,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="23.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="17.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="13.2222222222222" customWidth="1"/>
   </cols>
@@ -1082,38 +1080,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>